--- a/Code/Results/Cases/Case_0_165/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_165/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2973658913794424</v>
+        <v>0.4169947665850486</v>
       </c>
       <c r="D2">
-        <v>0.1073793340507336</v>
+        <v>0.1383540777476355</v>
       </c>
       <c r="E2">
-        <v>0.1011381704471823</v>
+        <v>0.1767078081192253</v>
       </c>
       <c r="F2">
-        <v>1.098343661192416</v>
+        <v>2.21055258455722</v>
       </c>
       <c r="G2">
-        <v>0.0008144826288638375</v>
+        <v>0.002520715835772573</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1225897328957615</v>
+        <v>0.2511392977561329</v>
       </c>
       <c r="K2">
-        <v>3.571223250354763</v>
+        <v>1.965132290912948</v>
       </c>
       <c r="L2">
-        <v>0.07205672990457401</v>
+        <v>0.1562234536183666</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9310947223252839</v>
+        <v>1.492239119467051</v>
       </c>
       <c r="O2">
-        <v>2.769916512289626</v>
+        <v>5.840205772284008</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2709240335993286</v>
+        <v>0.412471168722476</v>
       </c>
       <c r="D3">
-        <v>0.0964417492425298</v>
+        <v>0.1358399787789466</v>
       </c>
       <c r="E3">
-        <v>0.09370577814383552</v>
+        <v>0.1756992814456986</v>
       </c>
       <c r="F3">
-        <v>1.049318514790883</v>
+        <v>2.215540238303277</v>
       </c>
       <c r="G3">
-        <v>0.0008195497508892716</v>
+        <v>0.00252411860680124</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1162337300130716</v>
+        <v>0.2511006519643786</v>
       </c>
       <c r="K3">
-        <v>3.111009398182262</v>
+        <v>1.834975815562188</v>
       </c>
       <c r="L3">
-        <v>0.06812330489060514</v>
+        <v>0.1559134350462941</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9458874416655334</v>
+        <v>1.500826239000787</v>
       </c>
       <c r="O3">
-        <v>2.671781685591299</v>
+        <v>5.864365450898248</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.255028080503763</v>
+        <v>0.4098828058754123</v>
       </c>
       <c r="D4">
-        <v>0.08978703105682229</v>
+        <v>0.1343390114345553</v>
       </c>
       <c r="E4">
-        <v>0.0892504896895403</v>
+        <v>0.1751481770980625</v>
       </c>
       <c r="F4">
-        <v>1.021372656491486</v>
+        <v>2.219756885850146</v>
       </c>
       <c r="G4">
-        <v>0.000822762243383329</v>
+        <v>0.00252632007684012</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1125091305437067</v>
+        <v>0.2511831465795922</v>
       </c>
       <c r="K4">
-        <v>2.829499344649633</v>
+        <v>1.75547353548518</v>
       </c>
       <c r="L4">
-        <v>0.06577613825325912</v>
+        <v>0.1557718132252575</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9560827882851299</v>
+        <v>1.5066498965192</v>
       </c>
       <c r="O4">
-        <v>2.61761412319612</v>
+        <v>5.882379208610587</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2486298255478232</v>
+        <v>0.4088756748296447</v>
       </c>
       <c r="D5">
-        <v>0.08708930204655019</v>
+        <v>0.133738159557268</v>
       </c>
       <c r="E5">
-        <v>0.08746052211093769</v>
+        <v>0.1749407698995675</v>
       </c>
       <c r="F5">
-        <v>1.01049636156835</v>
+        <v>2.221765386482893</v>
       </c>
       <c r="G5">
-        <v>0.0008240973670242413</v>
+        <v>0.002527245482265784</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1110336535773868</v>
+        <v>0.2512434995867281</v>
       </c>
       <c r="K5">
-        <v>2.715000868668284</v>
+        <v>1.723181888151004</v>
       </c>
       <c r="L5">
-        <v>0.06483592082231127</v>
+        <v>0.1557263886807014</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9605086960490468</v>
+        <v>1.509161892703247</v>
       </c>
       <c r="O5">
-        <v>2.596986631227509</v>
+        <v>5.890519048516893</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2475720346264865</v>
+        <v>0.4087113218426026</v>
       </c>
       <c r="D6">
-        <v>0.08664216502067745</v>
+        <v>0.1336390431130638</v>
       </c>
       <c r="E6">
-        <v>0.08716479995637982</v>
+        <v>0.1749073684141997</v>
       </c>
       <c r="F6">
-        <v>1.0087204250677</v>
+        <v>2.222116421330526</v>
       </c>
       <c r="G6">
-        <v>0.0008243206494553659</v>
+        <v>0.002527400856304225</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1107911396932622</v>
+        <v>0.251255136677905</v>
       </c>
       <c r="K6">
-        <v>2.696000372678441</v>
+        <v>1.7178263564264</v>
       </c>
       <c r="L6">
-        <v>0.06468075816849606</v>
+        <v>0.1557195890993093</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9612597560156715</v>
+        <v>1.509587398100138</v>
       </c>
       <c r="O6">
-        <v>2.593646417860754</v>
+        <v>5.89191891254589</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2549414771409459</v>
+        <v>0.4098690303141126</v>
       </c>
       <c r="D7">
-        <v>0.08975059291181253</v>
+        <v>0.1343308642984908</v>
       </c>
       <c r="E7">
-        <v>0.0892262479816921</v>
+        <v>0.1751453103496452</v>
       </c>
       <c r="F7">
-        <v>1.021223941144967</v>
+        <v>2.219782798327714</v>
       </c>
       <c r="G7">
-        <v>0.0008227801432873069</v>
+        <v>0.00252633244236487</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1124890634786269</v>
+        <v>0.2511838522354921</v>
       </c>
       <c r="K7">
-        <v>2.827954352180939</v>
+        <v>1.755037606483938</v>
       </c>
       <c r="L7">
-        <v>0.06576339331591186</v>
+        <v>0.1557711508173973</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9561413903593134</v>
+        <v>1.50668321185195</v>
       </c>
       <c r="O7">
-        <v>2.61733018619563</v>
+        <v>5.882485750478708</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2881746304431658</v>
+        <v>0.4153958221059639</v>
       </c>
       <c r="D8">
-        <v>0.1035946343758525</v>
+        <v>0.1374783934446313</v>
       </c>
       <c r="E8">
-        <v>0.09855201355029664</v>
+        <v>0.1763459494482262</v>
       </c>
       <c r="F8">
-        <v>1.080973622885992</v>
+        <v>2.212032735030448</v>
       </c>
       <c r="G8">
-        <v>0.000816209092906417</v>
+        <v>0.002521865885565756</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1203597248733175</v>
+        <v>0.2511039404246134</v>
       </c>
       <c r="K8">
-        <v>3.412290741353161</v>
+        <v>1.920169496019923</v>
       </c>
       <c r="L8">
-        <v>0.07068586714810721</v>
+        <v>0.1561064649591977</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9359590371412025</v>
+        <v>1.495085701533903</v>
       </c>
       <c r="O8">
-        <v>2.734763724673513</v>
+        <v>5.847875816759711</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3563243308251174</v>
+        <v>0.4277318799456395</v>
       </c>
       <c r="D9">
-        <v>0.131286931839071</v>
+        <v>0.1439869449418012</v>
       </c>
       <c r="E9">
-        <v>0.117777340574893</v>
+        <v>0.1792395929264465</v>
       </c>
       <c r="F9">
-        <v>1.21670597892259</v>
+        <v>2.205997684546745</v>
       </c>
       <c r="G9">
-        <v>0.0008041005315991552</v>
+        <v>0.002513992932883863</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.137324585302224</v>
+        <v>0.2517892415458007</v>
       </c>
       <c r="K9">
-        <v>4.569002229925616</v>
+        <v>2.247209764318427</v>
       </c>
       <c r="L9">
-        <v>0.08091822813568683</v>
+        <v>0.1571493478542081</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9056211627687887</v>
+        <v>1.476706857979295</v>
       </c>
       <c r="O9">
-        <v>3.0174293981689</v>
+        <v>5.805259942585735</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4086413432877407</v>
+        <v>0.4377062686563988</v>
       </c>
       <c r="D10">
-        <v>0.1520560098708899</v>
+        <v>0.1489709560464263</v>
       </c>
       <c r="E10">
-        <v>0.132592548596655</v>
+        <v>0.1816927744458638</v>
       </c>
       <c r="F10">
-        <v>1.329927091735541</v>
+        <v>2.207159442769125</v>
       </c>
       <c r="G10">
-        <v>0.0007956391689655079</v>
+        <v>0.002508743245777633</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1508991688263492</v>
+        <v>0.2528053407358115</v>
       </c>
       <c r="K10">
-        <v>5.429118154784646</v>
+        <v>2.489378389368653</v>
       </c>
       <c r="L10">
-        <v>0.08884978476335448</v>
+        <v>0.1581489155040359</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8895797105129333</v>
+        <v>1.465852841362192</v>
       </c>
       <c r="O10">
-        <v>3.263130087010609</v>
+        <v>5.789387586186024</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.433034058655295</v>
+        <v>0.4424413604361632</v>
       </c>
       <c r="D11">
-        <v>0.1616186823539181</v>
+        <v>0.151281657972433</v>
       </c>
       <c r="E11">
-        <v>0.1395110743866788</v>
+        <v>0.1828795599944861</v>
       </c>
       <c r="F11">
-        <v>1.384893446678049</v>
+        <v>2.208905400189181</v>
       </c>
       <c r="G11">
-        <v>0.0007918749632990867</v>
+        <v>0.002506469927628263</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1573587977242354</v>
+        <v>0.2533787833892944</v>
       </c>
       <c r="K11">
-        <v>5.823540896642612</v>
+        <v>2.599945067130818</v>
       </c>
       <c r="L11">
-        <v>0.09256263979735735</v>
+        <v>0.1586540067806297</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8837875656336962</v>
+        <v>1.461488033156087</v>
       </c>
       <c r="O11">
-        <v>3.384638604950936</v>
+        <v>5.785528599439459</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4423656780155909</v>
+        <v>0.4442627841852698</v>
       </c>
       <c r="D12">
-        <v>0.1652583001225736</v>
+        <v>0.1521628497895193</v>
       </c>
       <c r="E12">
-        <v>0.1421592755193295</v>
+        <v>0.1833391168356826</v>
       </c>
       <c r="F12">
-        <v>1.406253504609182</v>
+        <v>2.209741763204264</v>
       </c>
       <c r="G12">
-        <v>0.0007904609373947561</v>
+        <v>0.002505625498711206</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1598497066801841</v>
+        <v>0.2536119072922816</v>
       </c>
       <c r="K12">
-        <v>5.973432624166833</v>
+        <v>2.641870096329001</v>
       </c>
       <c r="L12">
-        <v>0.09398499038823616</v>
+        <v>0.158852486809451</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8818242642696816</v>
+        <v>1.459917379960359</v>
       </c>
       <c r="O12">
-        <v>3.432185377253262</v>
+        <v>5.784551365314996</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4403515819623181</v>
+        <v>0.4438692485181264</v>
       </c>
       <c r="D13">
-        <v>0.1644735903956303</v>
+        <v>0.1519727956412282</v>
       </c>
       <c r="E13">
-        <v>0.1415876359874666</v>
+        <v>0.1832396923486499</v>
       </c>
       <c r="F13">
-        <v>1.401628169844585</v>
+        <v>2.20955384289627</v>
       </c>
       <c r="G13">
-        <v>0.0007907649799211201</v>
+        <v>0.002505806632220418</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1593111875860771</v>
+        <v>0.2535609897545612</v>
       </c>
       <c r="K13">
-        <v>5.941125742349925</v>
+        <v>2.632838341779348</v>
       </c>
       <c r="L13">
-        <v>0.0936779114898485</v>
+        <v>0.1588094202959169</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8822366359984102</v>
+        <v>1.460251994516014</v>
       </c>
       <c r="O13">
-        <v>3.421874845698596</v>
+        <v>5.784740289166962</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4337998241344962</v>
+        <v>0.4425906424026493</v>
       </c>
       <c r="D14">
-        <v>0.1619177345793901</v>
+        <v>0.1513540307080632</v>
       </c>
       <c r="E14">
-        <v>0.1397283607481334</v>
+        <v>0.1829171648646692</v>
       </c>
       <c r="F14">
-        <v>1.386639531285823</v>
+        <v>2.208970696082815</v>
       </c>
       <c r="G14">
-        <v>0.0007917584069568547</v>
+        <v>0.002506400127118162</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1575628052861404</v>
+        <v>0.2533976426048028</v>
       </c>
       <c r="K14">
-        <v>5.835861430117177</v>
+        <v>2.603393157726032</v>
       </c>
       <c r="L14">
-        <v>0.09267932139631796</v>
+        <v>0.1586701914774054</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8836213510800803</v>
+        <v>1.461357167919559</v>
       </c>
       <c r="O14">
-        <v>3.388518753315111</v>
+        <v>5.785438496012347</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4297992955274026</v>
+        <v>0.4418111485022109</v>
       </c>
       <c r="D15">
-        <v>0.1603546612182356</v>
+        <v>0.1509758219858242</v>
       </c>
       <c r="E15">
-        <v>0.1385932669554357</v>
+        <v>0.182720927799064</v>
       </c>
       <c r="F15">
-        <v>1.377531081596985</v>
+        <v>2.208636323009259</v>
       </c>
       <c r="G15">
-        <v>0.0007923683688606632</v>
+        <v>0.00250676579676791</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1564978241080794</v>
+        <v>0.2532996674424126</v>
       </c>
       <c r="K15">
-        <v>5.771455805271557</v>
+        <v>2.585364340091473</v>
       </c>
       <c r="L15">
-        <v>0.09206982915200257</v>
+        <v>0.1585858481923523</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8844999120098578</v>
+        <v>1.462044819602511</v>
       </c>
       <c r="O15">
-        <v>3.368291137372182</v>
+        <v>5.785929230635418</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4070599404268478</v>
+        <v>0.4374007904415294</v>
       </c>
       <c r="D16">
-        <v>0.1514335377076179</v>
+        <v>0.1488208146714527</v>
       </c>
       <c r="E16">
-        <v>0.1321442231959509</v>
+        <v>0.181616637145158</v>
       </c>
       <c r="F16">
-        <v>1.32640855595092</v>
+        <v>2.207069850523879</v>
       </c>
       <c r="G16">
-        <v>0.0007958868092005523</v>
+        <v>0.002508894115732881</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1504830656075171</v>
+        <v>0.2527701012034953</v>
       </c>
       <c r="K16">
-        <v>5.4034117295638</v>
+        <v>2.48216052426784</v>
       </c>
       <c r="L16">
-        <v>0.08860935828521121</v>
+        <v>0.1581169176880834</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8899896684115873</v>
+        <v>1.466149603457211</v>
       </c>
       <c r="O16">
-        <v>3.255396359624768</v>
+        <v>5.789707481217391</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3932684506278861</v>
+        <v>0.4347457548241209</v>
       </c>
       <c r="D17">
-        <v>0.1459914323458804</v>
+        <v>0.1475098669894521</v>
       </c>
       <c r="E17">
-        <v>0.1282355513593281</v>
+        <v>0.1809573031071849</v>
       </c>
       <c r="F17">
-        <v>1.295965849415722</v>
+        <v>2.206420789504747</v>
       </c>
       <c r="G17">
-        <v>0.0007980664469834755</v>
+        <v>0.002510229114264046</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1468687276108369</v>
+        <v>0.2524737005561377</v>
       </c>
       <c r="K17">
-        <v>5.178489976985531</v>
+        <v>2.418950023245486</v>
       </c>
       <c r="L17">
-        <v>0.08651419844915154</v>
+        <v>0.1578421254049047</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8937523231858648</v>
+        <v>1.468814335398861</v>
       </c>
       <c r="O17">
-        <v>3.18872496305849</v>
+        <v>5.79288676195506</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3853912082931288</v>
+        <v>0.4332372610913069</v>
       </c>
       <c r="D18">
-        <v>0.1428719490032364</v>
+        <v>0.1467599384069302</v>
       </c>
       <c r="E18">
-        <v>0.1260040706581087</v>
+        <v>0.1805847398148401</v>
       </c>
       <c r="F18">
-        <v>1.278778739854687</v>
+        <v>2.206162052290566</v>
       </c>
       <c r="G18">
-        <v>0.0007993281613467057</v>
+        <v>0.002511007779590228</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1448163819655619</v>
+        <v>0.2523136878415571</v>
       </c>
       <c r="K18">
-        <v>5.049412440512754</v>
+        <v>2.382631068832723</v>
       </c>
       <c r="L18">
-        <v>0.08531889279394989</v>
+        <v>0.1576888163381511</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8960573015249054</v>
+        <v>1.470400936305836</v>
       </c>
       <c r="O18">
-        <v>3.151285283599265</v>
+        <v>5.795031750671455</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.382733329216137</v>
+        <v>0.4327297102187799</v>
       </c>
       <c r="D19">
-        <v>0.1418175217602595</v>
+        <v>0.1465067307021855</v>
       </c>
       <c r="E19">
-        <v>0.1252513204331542</v>
+        <v>0.1804597426892371</v>
       </c>
       <c r="F19">
-        <v>1.273013518436542</v>
+        <v>2.206094124374573</v>
       </c>
       <c r="G19">
-        <v>0.0007997567616209776</v>
+        <v>0.002511273281211349</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.144125935920826</v>
+        <v>0.2522613089422734</v>
       </c>
       <c r="K19">
-        <v>5.005756772370546</v>
+        <v>2.370340695385494</v>
       </c>
       <c r="L19">
-        <v>0.08491582353622107</v>
+        <v>0.1576377243214182</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8968615124834258</v>
+        <v>1.470947397330377</v>
       </c>
       <c r="O19">
-        <v>3.138760894194832</v>
+        <v>5.795812318960174</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3947307944140164</v>
+        <v>0.4350264621578788</v>
       </c>
       <c r="D20">
-        <v>0.1465696356914634</v>
+        <v>0.1476489964107657</v>
       </c>
       <c r="E20">
-        <v>0.1286498915269334</v>
+        <v>0.1810268004761078</v>
       </c>
       <c r="F20">
-        <v>1.29917279296339</v>
+        <v>2.206478023000003</v>
       </c>
       <c r="G20">
-        <v>0.0007978335939836248</v>
+        <v>0.002510085883299432</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1472507076599499</v>
+        <v>0.252504169536266</v>
       </c>
       <c r="K20">
-        <v>5.202402560536257</v>
+        <v>2.425674965913345</v>
       </c>
       <c r="L20">
-        <v>0.0867362109881995</v>
+        <v>0.1578708867398291</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8933371148212643</v>
+        <v>1.468525091004722</v>
       </c>
       <c r="O20">
-        <v>3.195727344335268</v>
+        <v>5.792515575850075</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4357215881575485</v>
+        <v>0.442965431317333</v>
       </c>
       <c r="D21">
-        <v>0.1626679345767883</v>
+        <v>0.1515356098151983</v>
       </c>
       <c r="E21">
-        <v>0.1402736852464059</v>
+        <v>0.1830116239149042</v>
       </c>
       <c r="F21">
-        <v>1.391026852870297</v>
+        <v>2.209137224276091</v>
       </c>
       <c r="G21">
-        <v>0.000791466310810601</v>
+        <v>0.00250622535806603</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1580750994556794</v>
+        <v>0.2534451882516251</v>
       </c>
       <c r="K21">
-        <v>5.866764994437176</v>
+        <v>2.612040423705196</v>
       </c>
       <c r="L21">
-        <v>0.09297217616018827</v>
+        <v>0.1587108908541239</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8832082690737906</v>
+        <v>1.461030321873764</v>
       </c>
       <c r="O21">
-        <v>3.398273487478008</v>
+        <v>5.78522027223454</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4630678871832004</v>
+        <v>0.448319199029271</v>
       </c>
       <c r="D22">
-        <v>0.1732976168863019</v>
+        <v>0.154111721362824</v>
       </c>
       <c r="E22">
-        <v>0.1480368417623161</v>
+        <v>0.1843679476926177</v>
       </c>
       <c r="F22">
-        <v>1.454263456617937</v>
+        <v>2.211896470423582</v>
       </c>
       <c r="G22">
-        <v>0.000787370930276636</v>
+        <v>0.00250379799734984</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.165412567703406</v>
+        <v>0.2541532963213555</v>
       </c>
       <c r="K22">
-        <v>6.304109499948765</v>
+        <v>2.734165457110407</v>
       </c>
       <c r="L22">
-        <v>0.09714386430500355</v>
+        <v>0.1593019097953601</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8779365553413072</v>
+        <v>1.456611144037581</v>
       </c>
       <c r="O22">
-        <v>3.539661677116356</v>
+        <v>5.783274295173669</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4484184616231346</v>
+        <v>0.4454467038448797</v>
       </c>
       <c r="D23">
-        <v>0.167613740007539</v>
+        <v>0.1527335322214185</v>
       </c>
       <c r="E23">
-        <v>0.1438773749140552</v>
+        <v>0.1836386542348727</v>
       </c>
       <c r="F23">
-        <v>1.420202823467534</v>
+        <v>2.210330313760437</v>
       </c>
       <c r="G23">
-        <v>0.0007895509577169106</v>
+        <v>0.002505084793639304</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1614709787674613</v>
+        <v>0.2537668533890809</v>
       </c>
       <c r="K23">
-        <v>6.070374643971604</v>
+        <v>2.66895603928873</v>
       </c>
       <c r="L23">
-        <v>0.09490809793953758</v>
+        <v>0.1589826368759404</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.8806220327468282</v>
+        <v>1.458925954929455</v>
       </c>
       <c r="O23">
-        <v>3.463328258813107</v>
+        <v>5.784054456793058</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3940695085444474</v>
+        <v>0.4348994985440129</v>
       </c>
       <c r="D24">
-        <v>0.1463082012749908</v>
+        <v>0.1475860843056864</v>
       </c>
       <c r="E24">
-        <v>0.1284625197297622</v>
+        <v>0.1809953604770236</v>
       </c>
       <c r="F24">
-        <v>1.297721956789502</v>
+        <v>2.206451791338452</v>
       </c>
       <c r="G24">
-        <v>0.0007979388399099729</v>
+        <v>0.002510150603245484</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1470779350762612</v>
+        <v>0.2524903621394969</v>
       </c>
       <c r="K24">
-        <v>5.191590961745362</v>
+        <v>2.422634551871852</v>
       </c>
       <c r="L24">
-        <v>0.08663581046868529</v>
+        <v>0.157857869182962</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8935243899327077</v>
+        <v>1.46865568826783</v>
       </c>
       <c r="O24">
-        <v>3.192558803737768</v>
+        <v>5.792682401124438</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3375264738496639</v>
+        <v>0.4242344992283051</v>
       </c>
       <c r="D25">
-        <v>0.1237281132222421</v>
+        <v>0.1421905026321042</v>
       </c>
       <c r="E25">
-        <v>0.1124642795202497</v>
+        <v>0.1783992157009671</v>
       </c>
       <c r="F25">
-        <v>1.177784006586904</v>
+        <v>2.206648378571131</v>
       </c>
       <c r="G25">
-        <v>0.0008072968847602352</v>
+        <v>0.002516028501598991</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1325537813933479</v>
+        <v>0.2515137804882031</v>
       </c>
       <c r="K25">
-        <v>4.254559949002385</v>
+        <v>2.158399475755516</v>
       </c>
       <c r="L25">
-        <v>0.07808209281139966</v>
+        <v>0.1568261285801995</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9127785438824745</v>
+        <v>1.48121285028828</v>
       </c>
       <c r="O25">
-        <v>2.934751715841401</v>
+        <v>5.814080729789566</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_165/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_165/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4169947665850486</v>
+        <v>0.2973658913792718</v>
       </c>
       <c r="D2">
-        <v>0.1383540777476355</v>
+        <v>0.1073793340507194</v>
       </c>
       <c r="E2">
-        <v>0.1767078081192253</v>
+        <v>0.1011381704471823</v>
       </c>
       <c r="F2">
-        <v>2.21055258455722</v>
+        <v>1.098343661192445</v>
       </c>
       <c r="G2">
-        <v>0.002520715835772573</v>
+        <v>0.0008144826288925937</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2511392977561329</v>
+        <v>0.1225897328957899</v>
       </c>
       <c r="K2">
-        <v>1.965132290912948</v>
+        <v>3.571223250354763</v>
       </c>
       <c r="L2">
-        <v>0.1562234536183666</v>
+        <v>0.07205672990453849</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.492239119467051</v>
+        <v>0.9310947223252839</v>
       </c>
       <c r="O2">
-        <v>5.840205772284008</v>
+        <v>2.769916512289683</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.412471168722476</v>
+        <v>0.2709240335993286</v>
       </c>
       <c r="D3">
-        <v>0.1358399787789466</v>
+        <v>0.09644174924264348</v>
       </c>
       <c r="E3">
-        <v>0.1756992814456986</v>
+        <v>0.09370577814383552</v>
       </c>
       <c r="F3">
-        <v>2.215540238303277</v>
+        <v>1.049318514790883</v>
       </c>
       <c r="G3">
-        <v>0.00252411860680124</v>
+        <v>0.000819549750830165</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2511006519643786</v>
+        <v>0.1162337300130289</v>
       </c>
       <c r="K3">
-        <v>1.834975815562188</v>
+        <v>3.111009398182318</v>
       </c>
       <c r="L3">
-        <v>0.1559134350462941</v>
+        <v>0.06812330489057317</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.500826239000787</v>
+        <v>0.9458874416655334</v>
       </c>
       <c r="O3">
-        <v>5.864365450898248</v>
+        <v>2.671781685591355</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.4098828058754123</v>
+        <v>0.2550280805035356</v>
       </c>
       <c r="D4">
-        <v>0.1343390114345553</v>
+        <v>0.0897870310567086</v>
       </c>
       <c r="E4">
-        <v>0.1751481770980625</v>
+        <v>0.08925048968954385</v>
       </c>
       <c r="F4">
-        <v>2.219756885850146</v>
+        <v>1.021372656491486</v>
       </c>
       <c r="G4">
-        <v>0.00252632007684012</v>
+        <v>0.0008227622433809773</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2511831465795922</v>
+        <v>0.1125091305437422</v>
       </c>
       <c r="K4">
-        <v>1.75547353548518</v>
+        <v>2.829499344649605</v>
       </c>
       <c r="L4">
-        <v>0.1557718132252575</v>
+        <v>0.06577613825330531</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.5066498965192</v>
+        <v>0.9560827882851513</v>
       </c>
       <c r="O4">
-        <v>5.882379208610587</v>
+        <v>2.617614123196233</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.4088756748296447</v>
+        <v>0.2486298255476953</v>
       </c>
       <c r="D5">
-        <v>0.133738159557268</v>
+        <v>0.08708930204666387</v>
       </c>
       <c r="E5">
-        <v>0.1749407698995675</v>
+        <v>0.0874605221109519</v>
       </c>
       <c r="F5">
-        <v>2.221765386482893</v>
+        <v>1.010496361568336</v>
       </c>
       <c r="G5">
-        <v>0.002527245482265784</v>
+        <v>0.0008240973669953466</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2512434995867281</v>
+        <v>0.1110336535773015</v>
       </c>
       <c r="K5">
-        <v>1.723181888151004</v>
+        <v>2.715000868668255</v>
       </c>
       <c r="L5">
-        <v>0.1557263886807014</v>
+        <v>0.06483592082233969</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.509161892703247</v>
+        <v>0.9605086960491178</v>
       </c>
       <c r="O5">
-        <v>5.890519048516893</v>
+        <v>2.596986631227395</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.4087113218426026</v>
+        <v>0.247572034626458</v>
       </c>
       <c r="D6">
-        <v>0.1336390431130638</v>
+        <v>0.08664216502080535</v>
       </c>
       <c r="E6">
-        <v>0.1749073684141997</v>
+        <v>0.08716479995639759</v>
       </c>
       <c r="F6">
-        <v>2.222116421330526</v>
+        <v>1.008720425067715</v>
       </c>
       <c r="G6">
-        <v>0.002527400856304225</v>
+        <v>0.0008243206494264411</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.251255136677905</v>
+        <v>0.1107911396932195</v>
       </c>
       <c r="K6">
-        <v>1.7178263564264</v>
+        <v>2.69600037267827</v>
       </c>
       <c r="L6">
-        <v>0.1557195890993093</v>
+        <v>0.06468075816847474</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.509587398100138</v>
+        <v>0.9612597560156786</v>
       </c>
       <c r="O6">
-        <v>5.89191891254589</v>
+        <v>2.593646417860725</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.4098690303141126</v>
+        <v>0.2549414771410596</v>
       </c>
       <c r="D7">
-        <v>0.1343308642984908</v>
+        <v>0.08975059291193332</v>
       </c>
       <c r="E7">
-        <v>0.1751453103496452</v>
+        <v>0.08922624798170986</v>
       </c>
       <c r="F7">
-        <v>2.219782798327714</v>
+        <v>1.02122394114496</v>
       </c>
       <c r="G7">
-        <v>0.00252633244236487</v>
+        <v>0.0008227801434007847</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2511838522354921</v>
+        <v>0.1124890634785842</v>
       </c>
       <c r="K7">
-        <v>1.755037606483938</v>
+        <v>2.827954352180797</v>
       </c>
       <c r="L7">
-        <v>0.1557711508173973</v>
+        <v>0.06576339331591896</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.50668321185195</v>
+        <v>0.9561413903593134</v>
       </c>
       <c r="O7">
-        <v>5.882485750478708</v>
+        <v>2.617330186195545</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.4153958221059639</v>
+        <v>0.2881746304430663</v>
       </c>
       <c r="D8">
-        <v>0.1374783934446313</v>
+        <v>0.1035946343758383</v>
       </c>
       <c r="E8">
-        <v>0.1763459494482262</v>
+        <v>0.09855201355028598</v>
       </c>
       <c r="F8">
-        <v>2.212032735030448</v>
+        <v>1.08097362288602</v>
       </c>
       <c r="G8">
-        <v>0.002521865885565756</v>
+        <v>0.0008162090929347332</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2511039404246134</v>
+        <v>0.1203597248733956</v>
       </c>
       <c r="K8">
-        <v>1.920169496019923</v>
+        <v>3.412290741353047</v>
       </c>
       <c r="L8">
-        <v>0.1561064649591977</v>
+        <v>0.07068586714803615</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.495085701533903</v>
+        <v>0.9359590371412523</v>
       </c>
       <c r="O8">
-        <v>5.847875816759711</v>
+        <v>2.734763724673456</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4277318799456395</v>
+        <v>0.3563243308251174</v>
       </c>
       <c r="D9">
-        <v>0.1439869449418012</v>
+        <v>0.1312869318389005</v>
       </c>
       <c r="E9">
-        <v>0.1792395929264465</v>
+        <v>0.1177773405749107</v>
       </c>
       <c r="F9">
-        <v>2.205997684546745</v>
+        <v>1.216705978922576</v>
       </c>
       <c r="G9">
-        <v>0.002513992932883863</v>
+        <v>0.0008041005315699497</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2517892415458007</v>
+        <v>0.1373245853022027</v>
       </c>
       <c r="K9">
-        <v>2.247209764318427</v>
+        <v>4.569002229925502</v>
       </c>
       <c r="L9">
-        <v>0.1571493478542081</v>
+        <v>0.08091822813572236</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.476706857979295</v>
+        <v>0.9056211627687816</v>
       </c>
       <c r="O9">
-        <v>5.805259942585735</v>
+        <v>3.017429398168815</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4377062686563988</v>
+        <v>0.4086413432877407</v>
       </c>
       <c r="D10">
-        <v>0.1489709560464263</v>
+        <v>0.1520560098708472</v>
       </c>
       <c r="E10">
-        <v>0.1816927744458638</v>
+        <v>0.1325925485966621</v>
       </c>
       <c r="F10">
-        <v>2.207159442769125</v>
+        <v>1.329927091735499</v>
       </c>
       <c r="G10">
-        <v>0.002508743245777633</v>
+        <v>0.0007956391689319435</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2528053407358115</v>
+        <v>0.1508991688263563</v>
       </c>
       <c r="K10">
-        <v>2.489378389368653</v>
+        <v>5.429118154784589</v>
       </c>
       <c r="L10">
-        <v>0.1581489155040359</v>
+        <v>0.08884978476341843</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.465852841362192</v>
+        <v>0.8895797105129333</v>
       </c>
       <c r="O10">
-        <v>5.789387586186024</v>
+        <v>3.26313008701058</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4424413604361632</v>
+        <v>0.433034058655295</v>
       </c>
       <c r="D11">
-        <v>0.151281657972433</v>
+        <v>0.1616186823539039</v>
       </c>
       <c r="E11">
-        <v>0.1828795599944861</v>
+        <v>0.1395110743866788</v>
       </c>
       <c r="F11">
-        <v>2.208905400189181</v>
+        <v>1.384893446678063</v>
       </c>
       <c r="G11">
-        <v>0.002506469927628263</v>
+        <v>0.0007918749632638047</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2533787833892944</v>
+        <v>0.1573587977242568</v>
       </c>
       <c r="K11">
-        <v>2.599945067130818</v>
+        <v>5.823540896642612</v>
       </c>
       <c r="L11">
-        <v>0.1586540067806297</v>
+        <v>0.09256263979737156</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.461488033156087</v>
+        <v>0.8837875656336962</v>
       </c>
       <c r="O11">
-        <v>5.785528599439459</v>
+        <v>3.38463860495105</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4442627841852698</v>
+        <v>0.442365678015733</v>
       </c>
       <c r="D12">
-        <v>0.1521628497895193</v>
+        <v>0.1652583001224741</v>
       </c>
       <c r="E12">
-        <v>0.1833391168356826</v>
+        <v>0.1421592755193579</v>
       </c>
       <c r="F12">
-        <v>2.209741763204264</v>
+        <v>1.406253504609197</v>
       </c>
       <c r="G12">
-        <v>0.002505625498711206</v>
+        <v>0.0007904609373583728</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2536119072922816</v>
+        <v>0.1598497066801272</v>
       </c>
       <c r="K12">
-        <v>2.641870096329001</v>
+        <v>5.973432624166662</v>
       </c>
       <c r="L12">
-        <v>0.158852486809451</v>
+        <v>0.09398499038822195</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.459917379960359</v>
+        <v>0.8818242642696816</v>
       </c>
       <c r="O12">
-        <v>5.784551365314996</v>
+        <v>3.432185377253148</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4438692485181264</v>
+        <v>0.4403515819623465</v>
       </c>
       <c r="D13">
-        <v>0.1519727956412282</v>
+        <v>0.164473590395616</v>
       </c>
       <c r="E13">
-        <v>0.1832396923486499</v>
+        <v>0.1415876359874524</v>
       </c>
       <c r="F13">
-        <v>2.20955384289627</v>
+        <v>1.401628169844585</v>
       </c>
       <c r="G13">
-        <v>0.002505806632220418</v>
+        <v>0.0007907649798577263</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2535609897545612</v>
+        <v>0.1593111875860345</v>
       </c>
       <c r="K13">
-        <v>2.632838341779348</v>
+        <v>5.941125742349982</v>
       </c>
       <c r="L13">
-        <v>0.1588094202959169</v>
+        <v>0.09367791148980587</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.460251994516014</v>
+        <v>0.882236635998396</v>
       </c>
       <c r="O13">
-        <v>5.784740289166962</v>
+        <v>3.421874845698568</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4425906424026493</v>
+        <v>0.4337998241344962</v>
       </c>
       <c r="D14">
-        <v>0.1513540307080632</v>
+        <v>0.1619177345794185</v>
       </c>
       <c r="E14">
-        <v>0.1829171648646692</v>
+        <v>0.139728360748137</v>
       </c>
       <c r="F14">
-        <v>2.208970696082815</v>
+        <v>1.386639531285809</v>
       </c>
       <c r="G14">
-        <v>0.002506400127118162</v>
+        <v>0.0007917584069281072</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2533976426048028</v>
+        <v>0.1575628052860978</v>
       </c>
       <c r="K14">
-        <v>2.603393157726032</v>
+        <v>5.835861430117177</v>
       </c>
       <c r="L14">
-        <v>0.1586701914774054</v>
+        <v>0.0926793213963677</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.461357167919559</v>
+        <v>0.8836213510800519</v>
       </c>
       <c r="O14">
-        <v>5.785438496012347</v>
+        <v>3.388518753315026</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4418111485022109</v>
+        <v>0.4297992955273173</v>
       </c>
       <c r="D15">
-        <v>0.1509758219858242</v>
+        <v>0.160354661218193</v>
       </c>
       <c r="E15">
-        <v>0.182720927799064</v>
+        <v>0.138593266955418</v>
       </c>
       <c r="F15">
-        <v>2.208636323009259</v>
+        <v>1.377531081596985</v>
       </c>
       <c r="G15">
-        <v>0.00250676579676791</v>
+        <v>0.0007923683687891045</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2532996674424126</v>
+        <v>0.1564978241080723</v>
       </c>
       <c r="K15">
-        <v>2.585364340091473</v>
+        <v>5.771455805271614</v>
       </c>
       <c r="L15">
-        <v>0.1585858481923523</v>
+        <v>0.09206982915195283</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.462044819602511</v>
+        <v>0.8844999120099288</v>
       </c>
       <c r="O15">
-        <v>5.785929230635418</v>
+        <v>3.368291137372267</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4374007904415294</v>
+        <v>0.4070599404271036</v>
       </c>
       <c r="D16">
-        <v>0.1488208146714527</v>
+        <v>0.1514335377076179</v>
       </c>
       <c r="E16">
-        <v>0.181616637145158</v>
+        <v>0.1321442231959509</v>
       </c>
       <c r="F16">
-        <v>2.207069850523879</v>
+        <v>1.32640855595092</v>
       </c>
       <c r="G16">
-        <v>0.002508894115732881</v>
+        <v>0.0007958868091373692</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2527701012034953</v>
+        <v>0.1504830656075171</v>
       </c>
       <c r="K16">
-        <v>2.48216052426784</v>
+        <v>5.403411729563913</v>
       </c>
       <c r="L16">
-        <v>0.1581169176880834</v>
+        <v>0.08860935828527516</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.466149603457211</v>
+        <v>0.8899896684115447</v>
       </c>
       <c r="O16">
-        <v>5.789707481217391</v>
+        <v>3.255396359624797</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4347457548241209</v>
+        <v>0.3932684506279145</v>
       </c>
       <c r="D17">
-        <v>0.1475098669894521</v>
+        <v>0.1459914323457525</v>
       </c>
       <c r="E17">
-        <v>0.1809573031071849</v>
+        <v>0.1282355513593281</v>
       </c>
       <c r="F17">
-        <v>2.206420789504747</v>
+        <v>1.295965849415722</v>
       </c>
       <c r="G17">
-        <v>0.002510229114264046</v>
+        <v>0.0007980664469836023</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2524737005561377</v>
+        <v>0.146868727610844</v>
       </c>
       <c r="K17">
-        <v>2.418950023245486</v>
+        <v>5.178489976985475</v>
       </c>
       <c r="L17">
-        <v>0.1578421254049047</v>
+        <v>0.08651419844901653</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.468814335398861</v>
+        <v>0.8937523231858506</v>
       </c>
       <c r="O17">
-        <v>5.79288676195506</v>
+        <v>3.188724963058405</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4332372610913069</v>
+        <v>0.3853912082932425</v>
       </c>
       <c r="D18">
-        <v>0.1467599384069302</v>
+        <v>0.1428719490031511</v>
       </c>
       <c r="E18">
-        <v>0.1805847398148401</v>
+        <v>0.1260040706581229</v>
       </c>
       <c r="F18">
-        <v>2.206162052290566</v>
+        <v>1.278778739854673</v>
       </c>
       <c r="G18">
-        <v>0.002511007779590228</v>
+        <v>0.0007993281613800821</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2523136878415571</v>
+        <v>0.1448163819656187</v>
       </c>
       <c r="K18">
-        <v>2.382631068832723</v>
+        <v>5.049412440512697</v>
       </c>
       <c r="L18">
-        <v>0.1576888163381511</v>
+        <v>0.08531889279399962</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.470400936305836</v>
+        <v>0.8960573015248912</v>
       </c>
       <c r="O18">
-        <v>5.795031750671455</v>
+        <v>3.151285283599236</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4327297102187799</v>
+        <v>0.382733329216137</v>
       </c>
       <c r="D19">
-        <v>0.1465067307021855</v>
+        <v>0.1418175217603448</v>
       </c>
       <c r="E19">
-        <v>0.1804597426892371</v>
+        <v>0.1252513204331542</v>
       </c>
       <c r="F19">
-        <v>2.206094124374573</v>
+        <v>1.273013518436528</v>
       </c>
       <c r="G19">
-        <v>0.002511273281211349</v>
+        <v>0.0007997567615586542</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2522613089422734</v>
+        <v>0.1441259359208331</v>
       </c>
       <c r="K19">
-        <v>2.370340695385494</v>
+        <v>5.005756772370717</v>
       </c>
       <c r="L19">
-        <v>0.1576377243214182</v>
+        <v>0.08491582353605764</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.470947397330377</v>
+        <v>0.8968615124834685</v>
       </c>
       <c r="O19">
-        <v>5.795812318960174</v>
+        <v>3.138760894194888</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4350264621578788</v>
+        <v>0.3947307944139027</v>
       </c>
       <c r="D20">
-        <v>0.1476489964107657</v>
+        <v>0.1465696356914208</v>
       </c>
       <c r="E20">
-        <v>0.1810268004761078</v>
+        <v>0.1286498915269441</v>
       </c>
       <c r="F20">
-        <v>2.206478023000003</v>
+        <v>1.29917279296339</v>
       </c>
       <c r="G20">
-        <v>0.002510085883299432</v>
+        <v>0.0007978335939827191</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.252504169536266</v>
+        <v>0.1472507076599925</v>
       </c>
       <c r="K20">
-        <v>2.425674965913345</v>
+        <v>5.202402560536257</v>
       </c>
       <c r="L20">
-        <v>0.1578708867398291</v>
+        <v>0.08673621098824924</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.468525091004722</v>
+        <v>0.8933371148212501</v>
       </c>
       <c r="O20">
-        <v>5.792515575850075</v>
+        <v>3.195727344335239</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.442965431317333</v>
+        <v>0.4357215881575769</v>
       </c>
       <c r="D21">
-        <v>0.1515356098151983</v>
+        <v>0.162667934576973</v>
       </c>
       <c r="E21">
-        <v>0.1830116239149042</v>
+        <v>0.1402736852464024</v>
       </c>
       <c r="F21">
-        <v>2.209137224276091</v>
+        <v>1.391026852870297</v>
       </c>
       <c r="G21">
-        <v>0.00250622535806603</v>
+        <v>0.0007914663108106996</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2534451882516251</v>
+        <v>0.1580750994556794</v>
       </c>
       <c r="K21">
-        <v>2.612040423705196</v>
+        <v>5.866764994437347</v>
       </c>
       <c r="L21">
-        <v>0.1587108908541239</v>
+        <v>0.09297217616030906</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.461030321873764</v>
+        <v>0.8832082690737906</v>
       </c>
       <c r="O21">
-        <v>5.78522027223454</v>
+        <v>3.398273487478008</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.448319199029271</v>
+        <v>0.4630678871830014</v>
       </c>
       <c r="D22">
-        <v>0.154111721362824</v>
+        <v>0.1732976168863729</v>
       </c>
       <c r="E22">
-        <v>0.1843679476926177</v>
+        <v>0.148036841762309</v>
       </c>
       <c r="F22">
-        <v>2.211896470423582</v>
+        <v>1.454263456617952</v>
       </c>
       <c r="G22">
-        <v>0.00250379799734984</v>
+        <v>0.0007873709302403317</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2541532963213555</v>
+        <v>0.1654125677033988</v>
       </c>
       <c r="K22">
-        <v>2.734165457110407</v>
+        <v>6.304109499948652</v>
       </c>
       <c r="L22">
-        <v>0.1593019097953601</v>
+        <v>0.09714386430499644</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.456611144037581</v>
+        <v>0.877936555341293</v>
       </c>
       <c r="O22">
-        <v>5.783274295173669</v>
+        <v>3.539661677116271</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4454467038448797</v>
+        <v>0.4484184616231346</v>
       </c>
       <c r="D23">
-        <v>0.1527335322214185</v>
+        <v>0.1676137400074396</v>
       </c>
       <c r="E23">
-        <v>0.1836386542348727</v>
+        <v>0.143877374914041</v>
       </c>
       <c r="F23">
-        <v>2.210330313760437</v>
+        <v>1.42020282346752</v>
       </c>
       <c r="G23">
-        <v>0.002505084793639304</v>
+        <v>0.0007895509577526174</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2537668533890809</v>
+        <v>0.1614709787674684</v>
       </c>
       <c r="K23">
-        <v>2.66895603928873</v>
+        <v>6.070374643971491</v>
       </c>
       <c r="L23">
-        <v>0.1589826368759404</v>
+        <v>0.09490809793952337</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.458925954929455</v>
+        <v>0.8806220327468282</v>
       </c>
       <c r="O23">
-        <v>5.784054456793058</v>
+        <v>3.46332825881305</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4348994985440129</v>
+        <v>0.3940695085441348</v>
       </c>
       <c r="D24">
-        <v>0.1475860843056864</v>
+        <v>0.1463082012751045</v>
       </c>
       <c r="E24">
-        <v>0.1809953604770236</v>
+        <v>0.1284625197297693</v>
       </c>
       <c r="F24">
-        <v>2.206451791338452</v>
+        <v>1.297721956789488</v>
       </c>
       <c r="G24">
-        <v>0.002510150603245484</v>
+        <v>0.0007979388399154927</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2524903621394969</v>
+        <v>0.1470779350762541</v>
       </c>
       <c r="K24">
-        <v>2.422634551871852</v>
+        <v>5.191590961745192</v>
       </c>
       <c r="L24">
-        <v>0.157857869182962</v>
+        <v>0.08663581046867108</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.46865568826783</v>
+        <v>0.8935243899326508</v>
       </c>
       <c r="O24">
-        <v>5.792682401124438</v>
+        <v>3.192558803737654</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4242344992283051</v>
+        <v>0.3375264738495218</v>
       </c>
       <c r="D25">
-        <v>0.1421905026321042</v>
+        <v>0.1237281132222421</v>
       </c>
       <c r="E25">
-        <v>0.1783992157009671</v>
+        <v>0.1124642795202675</v>
       </c>
       <c r="F25">
-        <v>2.206648378571131</v>
+        <v>1.17778400658689</v>
       </c>
       <c r="G25">
-        <v>0.002516028501598991</v>
+        <v>0.0008072968847289268</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2515137804882031</v>
+        <v>0.132553781393284</v>
       </c>
       <c r="K25">
-        <v>2.158399475755516</v>
+        <v>4.254559949002441</v>
       </c>
       <c r="L25">
-        <v>0.1568261285801995</v>
+        <v>0.07808209281130019</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.48121285028828</v>
+        <v>0.9127785438825313</v>
       </c>
       <c r="O25">
-        <v>5.814080729789566</v>
+        <v>2.934751715841401</v>
       </c>
     </row>
   </sheetData>
